--- a/biology/Zoologie/Betta_imbellis/Betta_imbellis.xlsx
+++ b/biology/Zoologie/Betta_imbellis/Betta_imbellis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Betta imbellis, communément appelé Betta paisible, est un poisson actinoptérygien d'eau douce de la famille des osphronemidae. Cette espèce est originaire de Malaisie et d'Indonésie. À la différence de Betta splendens, ce poisson est comme son nom l'indique, paisible.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le betta paisible mesure 4,5 cm de long et il est omnivore. La reproduction de Betta imbellis est similaire à celle de Betta splendens mais la production d'œufs est bien moindre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le betta paisible mesure 4,5 cm de long et il est omnivore. La reproduction de Betta imbellis est similaire à celle de Betta splendens mais la production d'œufs est bien moindre.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Maintenance en captivité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, imbellis, du préfixe privatif latin in-, et bellis, « guerre », fait référence au fait que, contrairement aux autres espèces de ce genre, les mâles ne se battent que rarement[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, imbellis, du préfixe privatif latin in-, et bellis, « guerre », fait référence au fait que, contrairement aux autres espèces de ce genre, les mâles ne se battent que rarement.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) Werner Ladiges, « Betta imbellis nov. spec., der friedliche Kampffisch », DATZ, Allemagne, Natur und Tier - Verlag (d), vol. 28, no 8,‎ août 1975, p. 262-264 (ISSN 1616-3222 et 0003-7265, lire en ligne)</t>
         </is>
